--- a/medicine/Psychotrope/Mathilde_Thomas/Mathilde_Thomas.xlsx
+++ b/medicine/Psychotrope/Mathilde_Thomas/Mathilde_Thomas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mathilde Thomas, née le 2 décembre 1971 à La Tronche en Isère, est une entrepreneuse française. Elle est la créatrice de la marque de cosmétique Caudalie.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Mathilde Thomas est la fille de Daniel et Florence Cathiard, fondateurs de l'enseigne Go Sport (revendue avec leur chaîne de grande distribution Genty-Cathiard au groupe Rallye-Casino en 1992)[1],[2],[3] et aujourd'hui propriétaires du Château Smith Haut Lafitte, grand cru classé de Graves.
-Formation
-Elle est diplômée de l’École Supérieur de Commerce de Nice[4],[3].
-Caudalie
-C'est en 1993 que Mathilde Cathiard-Thomas fonde, avec son mari Bertrand, la marque Caudalie. 
-Un spa vinothérapie, les Sources de Caudalie, est également ouvert sur les terres du château familial de Smith Haut Lafitte en 1999[5].
-Mathilde Thomas dirige aujourd'hui encore la marque avec son mari, se consacrant principalement à la composition des produits et au marketing, tout en étant la principale ambassadrice de l'entreprise familiale dans le monde[6],[7].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mathilde Thomas est la fille de Daniel et Florence Cathiard, fondateurs de l'enseigne Go Sport (revendue avec leur chaîne de grande distribution Genty-Cathiard au groupe Rallye-Casino en 1992) et aujourd'hui propriétaires du Château Smith Haut Lafitte, grand cru classé de Graves.
 </t>
         </is>
       </c>
@@ -546,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Avec Corinne Pezard, La santé par le raisin et la vinothérapie : prévention des cancers et des maladies cardio-vasculaires, soins antiâge et minceur, Éditions Médicis, novembre 1998, 122 p. (ISBN 978-2-85327-116-5).
-(en) The French Beauty Solution : Time-Tested Secrets to Look and Feel Beautiful Inside and Out, Penguin, 14 juillet 2015 (ISBN 978-0-698-19846-3, lire en ligne).</t>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est diplômée de l’École Supérieur de Commerce de Nice,.
+</t>
         </is>
       </c>
     </row>
@@ -577,12 +594,86 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caudalie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1993 que Mathilde Cathiard-Thomas fonde, avec son mari Bertrand, la marque Caudalie. 
+Un spa vinothérapie, les Sources de Caudalie, est également ouvert sur les terres du château familial de Smith Haut Lafitte en 1999.
+Mathilde Thomas dirige aujourd'hui encore la marque avec son mari, se consacrant principalement à la composition des produits et au marketing, tout en étant la principale ambassadrice de l'entreprise familiale dans le monde,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mathilde_Thomas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mathilde_Thomas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avec Corinne Pezard, La santé par le raisin et la vinothérapie : prévention des cancers et des maladies cardio-vasculaires, soins antiâge et minceur, Éditions Médicis, novembre 1998, 122 p. (ISBN 978-2-85327-116-5).
+(en) The French Beauty Solution : Time-Tested Secrets to Look and Feel Beautiful Inside and Out, Penguin, 14 juillet 2015 (ISBN 978-0-698-19846-3, lire en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mathilde_Thomas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mathilde_Thomas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chevalier de la Légion d'honneur en 2015[8],[9].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur en 2015,.</t>
         </is>
       </c>
     </row>
